--- a/CK.xlsx
+++ b/CK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTT2021\C#.Example\Hung\Source code season 5\ServerDTT(New)\ServerDTT(New)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTT2021\[DTT2021][Source-code]\ServerDTT(New)\ServerDTT(New)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA0D56-4BFD-432B-8F21-7BC1084B1412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF49E49-4844-463D-8DBF-A39FAD74ED2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B7489BF-D45E-4814-A8B1-D5F26604EBC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2B7489BF-D45E-4814-A8B1-D5F26604EBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="KD" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TT" sheetId="3" r:id="rId3"/>
     <sheet name="VD" sheetId="4" r:id="rId4"/>
     <sheet name="GM" sheetId="5" r:id="rId5"/>
+    <sheet name="CHP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="320">
   <si>
     <t>STT</t>
   </si>
@@ -1796,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867E85D2-DE61-4B08-8D36-0BDAFD80D0AD}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4599,4 +4600,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7AE363-B5C5-4CD1-A0FF-A45C93916286}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CK.xlsx
+++ b/CK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTT2021\[DTT2021][Source-code]\ServerDTT(New)\ServerDTT(New)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF49E49-4844-463D-8DBF-A39FAD74ED2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9BDF9B-A099-4F0B-ABDF-D9C85A400212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2B7489BF-D45E-4814-A8B1-D5F26604EBC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2B7489BF-D45E-4814-A8B1-D5F26604EBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="KD" sheetId="1" r:id="rId1"/>
@@ -974,76 +974,76 @@
     <t>Tượng đài Mẹ Việt Nam Anh hùng tại Núi Cấm, Quảng Nam lấy nguyên mẫu hình tượng Mẹ Việt Nam anh hùng nào?</t>
   </si>
   <si>
-    <t>S5_CK_TT01.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_TT02.png</t>
-  </si>
-  <si>
-    <t>S5_CK_TT03.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_TT04.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_keyTT04.png</t>
-  </si>
-  <si>
-    <t>S5_CK_THD.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_THÍ NGHIỆM 1.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_santa.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_ah.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_CPC.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_DS.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_41.mp4</t>
-  </si>
-  <si>
-    <t>S5_CK_Obstacles_MainObstacleImage.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_bia.png</t>
-  </si>
-  <si>
-    <t>S5_CK_1KEY.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_2KEY.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_3KEY.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_4KEY.gif</t>
-  </si>
-  <si>
-    <t>S5_CK_5KEY.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_KEY6.png</t>
-  </si>
-  <si>
-    <t>S5_CK_key7.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_KEY8.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_key10.jpg</t>
-  </si>
-  <si>
-    <t>S5_CK_KEY9.jpg</t>
+    <t>MC1/VCNV/MainObstacleImage.jpg</t>
+  </si>
+  <si>
+    <t>MC1/TT/TT01.mp4</t>
+  </si>
+  <si>
+    <t>MC1/TT/TT02.png</t>
+  </si>
+  <si>
+    <t>MC1/TT/TT03.mp4</t>
+  </si>
+  <si>
+    <t>MC1/TT/TT04.jpg</t>
+  </si>
+  <si>
+    <t>MC1/TT/KeyTT04.png</t>
+  </si>
+  <si>
+    <t>MC1/VD/THD.mp4</t>
+  </si>
+  <si>
+    <t>MC1/VD/THÍ NGHIỆM 1.mp4</t>
+  </si>
+  <si>
+    <t>MC1/VD/santa.mp4</t>
+  </si>
+  <si>
+    <t>MC1/VD/CPC.mp4</t>
+  </si>
+  <si>
+    <t>MC1/VD/ah.mp4</t>
+  </si>
+  <si>
+    <t>MC1/VD/DS.mp4</t>
+  </si>
+  <si>
+    <t>MC1/VD/41.mp4</t>
+  </si>
+  <si>
+    <t>MC1/GM/1.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/2.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/3.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/4.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/5.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/6.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/7.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/8.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/9.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/10.jpg</t>
+  </si>
+  <si>
+    <t>MC1/GM/bia.png</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867E85D2-DE61-4B08-8D36-0BDAFD80D0AD}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:C6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2588,7 +2588,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2603,7 +2603,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>157</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6"/>
@@ -2749,7 +2749,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="6"/>
@@ -2835,7 +2835,7 @@
         <v>170</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E3" s="52"/>
       <c r="F3" s="52"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="6"/>
@@ -2881,11 +2881,11 @@
         <v>5</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2904,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33A169-AB15-4B51-BF11-F7FD204F2D4D}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="328.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3598,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535DD71F-9848-4A04-AD2E-E6BD6F6743FA}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4167,7 +4167,7 @@
         <v>274</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="G38" s="38"/>
       <c r="H38" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4606,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7AE363-B5C5-4CD1-A0FF-A45C93916286}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
